--- a/upload/excel/define_hr.xlsx
+++ b/upload/excel/define_hr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -181,13 +181,109 @@
   </si>
   <si>
     <t>Văn thư</t>
+  </si>
+  <si>
+    <t>Khiển trách</t>
+  </si>
+  <si>
+    <t>Cảnh cáo</t>
+  </si>
+  <si>
+    <t>Cách chức</t>
+  </si>
+  <si>
+    <t>Buộc thôi việc</t>
+  </si>
+  <si>
+    <t>Bà mẹ Việt Nam anh hùng</t>
+  </si>
+  <si>
+    <t>Anh hùng Lực lượng vũ trang nhân dân</t>
+  </si>
+  <si>
+    <t>Anh hùng Lao động</t>
+  </si>
+  <si>
+    <t>Nhà giáo nhân dân</t>
+  </si>
+  <si>
+    <t>Nhà giáo ưu tú</t>
+  </si>
+  <si>
+    <t>Thầy thuốc nhân dân</t>
+  </si>
+  <si>
+    <t>Thầy thuốc ưu tú</t>
+  </si>
+  <si>
+    <t>Nghệ sĩ nhân dân</t>
+  </si>
+  <si>
+    <t>Nghệ sĩ ưu tú</t>
+  </si>
+  <si>
+    <t>Nghệ nhân nhân dân</t>
+  </si>
+  <si>
+    <t>Nghệ nhân ưu tú</t>
+  </si>
+  <si>
+    <t>Chiến sĩ thi đua toàn quốc</t>
+  </si>
+  <si>
+    <t>Chiến sĩ thi đua cấp Bộ, ngành, tỉnh, đoàn thể trung ương</t>
+  </si>
+  <si>
+    <t>Chiến sĩ thi đua cơ sở</t>
+  </si>
+  <si>
+    <t>Huân chương Sao vàng</t>
+  </si>
+  <si>
+    <t>Huân chương Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Huân chương Độc lập hạng nhất, hạng nhì, hạng ba</t>
+  </si>
+  <si>
+    <t>Huân chương Quân công hạng nhất, hạng nhì, hạng ba</t>
+  </si>
+  <si>
+    <t>Huân chương Lao động hạng nhất, hạng nhì, hạng ba</t>
+  </si>
+  <si>
+    <t>Huân chương Bảo vệ Tổ quốc hạng nhất, hạng nhì, hạng ba</t>
+  </si>
+  <si>
+    <t>Huân chương Chiến công hạng nhất, hạng nhì, hạng ba</t>
+  </si>
+  <si>
+    <t>Huân chương Đại đoàn kết dân tộc</t>
+  </si>
+  <si>
+    <t>Huân chương Dũng cảm</t>
+  </si>
+  <si>
+    <t>Huân chương Hữu nghị</t>
+  </si>
+  <si>
+    <t>Huy chương Quân kỳ quyết thắng</t>
+  </si>
+  <si>
+    <t>Huy chương Vì an ninh Tổ quốc</t>
+  </si>
+  <si>
+    <t>Huy chương Chiến sĩ vẻ vang hạng nhất, hạng nhì, hạng ba</t>
+  </si>
+  <si>
+    <t>Huy chương Hữu nghị</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +291,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +317,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -228,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,6 +348,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,21 +650,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A67" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="66.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -559,7 +675,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
@@ -570,7 +686,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -581,7 +697,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
@@ -592,7 +708,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
@@ -603,7 +719,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
@@ -614,7 +730,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
@@ -625,7 +741,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
@@ -636,7 +752,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
@@ -647,7 +763,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1">
@@ -658,7 +774,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1">
@@ -669,7 +785,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1">
@@ -680,7 +796,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
@@ -691,7 +807,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
@@ -702,7 +818,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
@@ -713,7 +829,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1">
@@ -724,7 +840,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1">
@@ -735,7 +851,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1">
@@ -746,7 +862,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1">
@@ -757,7 +873,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
@@ -768,7 +884,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" s="4" customFormat="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="3">
@@ -779,7 +895,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="3">
@@ -790,7 +906,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" s="4" customFormat="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="3">
@@ -801,7 +917,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" s="4" customFormat="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="3">
@@ -812,7 +928,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="1">
@@ -823,7 +939,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="1">
@@ -834,7 +950,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="1">
@@ -845,7 +961,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="1">
@@ -856,7 +972,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1">
@@ -867,7 +983,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" s="4" customFormat="1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="3">
@@ -878,7 +994,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" s="4" customFormat="1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="3">
@@ -889,7 +1005,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="3">
@@ -900,7 +1016,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" s="4" customFormat="1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="3">
@@ -911,7 +1027,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" s="4" customFormat="1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="3">
@@ -922,7 +1038,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="1">
@@ -933,7 +1049,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="1">
@@ -944,7 +1060,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="1">
@@ -955,7 +1071,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="1">
@@ -966,7 +1082,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" s="4" customFormat="1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="3">
@@ -977,7 +1093,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="4" customFormat="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="3">
@@ -988,7 +1104,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" s="4" customFormat="1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="3">
@@ -999,7 +1115,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="1">
@@ -1010,7 +1126,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="1">
@@ -1021,7 +1137,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="1">
@@ -1032,7 +1148,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="3">
@@ -1043,7 +1159,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="3">
@@ -1054,7 +1170,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="3">
@@ -1065,7 +1181,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="3">
@@ -1076,7 +1192,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="3">
@@ -1087,7 +1203,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="3">
@@ -1098,7 +1214,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="3">
@@ -1109,7 +1225,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="3">
@@ -1120,7 +1236,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="3">
@@ -1130,8 +1246,361 @@
         <v>9</v>
       </c>
     </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1">
+        <v>23</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1">
+        <v>23</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1">
+        <v>23</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="1">
+        <v>23</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="9">
+        <v>21</v>
+      </c>
+      <c r="C58" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="9">
+        <v>21</v>
+      </c>
+      <c r="C59" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="9">
+        <v>21</v>
+      </c>
+      <c r="C60" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="9">
+        <v>21</v>
+      </c>
+      <c r="C61" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="9">
+        <v>21</v>
+      </c>
+      <c r="C62" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="9">
+        <v>21</v>
+      </c>
+      <c r="C63" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="9">
+        <v>21</v>
+      </c>
+      <c r="C64" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="9">
+        <v>21</v>
+      </c>
+      <c r="C65" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="9">
+        <v>21</v>
+      </c>
+      <c r="C66" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="9">
+        <v>21</v>
+      </c>
+      <c r="C67" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="9">
+        <v>21</v>
+      </c>
+      <c r="C68" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1">
+        <v>22</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="1">
+        <v>22</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="1">
+        <v>22</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="1">
+        <v>22</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="1">
+        <v>22</v>
+      </c>
+      <c r="C73" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="1">
+        <v>22</v>
+      </c>
+      <c r="C74" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="1">
+        <v>22</v>
+      </c>
+      <c r="C75" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="1">
+        <v>22</v>
+      </c>
+      <c r="C76" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="1">
+        <v>22</v>
+      </c>
+      <c r="C77" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="1">
+        <v>22</v>
+      </c>
+      <c r="C78" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="1">
+        <v>22</v>
+      </c>
+      <c r="C79" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="1">
+        <v>22</v>
+      </c>
+      <c r="C80" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="1">
+        <v>22</v>
+      </c>
+      <c r="C81" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="1">
+        <v>22</v>
+      </c>
+      <c r="C82" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="1">
+        <v>22</v>
+      </c>
+      <c r="C83" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="1">
+        <v>22</v>
+      </c>
+      <c r="C84" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="1">
+        <v>22</v>
+      </c>
+      <c r="C85" s="1">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/upload/excel/define_hr.xlsx
+++ b/upload/excel/define_hr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -93,9 +93,6 @@
     <t>36 tháng</t>
   </si>
   <si>
-    <t>vĩnh viễn</t>
-  </si>
-  <si>
     <t>Tiếng Anh</t>
   </si>
   <si>
@@ -277,13 +274,46 @@
   </si>
   <si>
     <t>Huy chương Hữu nghị</t>
+  </si>
+  <si>
+    <t>Không giới hạn</t>
+  </si>
+  <si>
+    <t>Đối tượng hưởng lương từ ngân sách NN trong các cơ quan Đảng, Nhà nước, tổ chức chính trị - XH</t>
+  </si>
+  <si>
+    <t>Cán bộ, công chức trong chỉ tiêu biên chế</t>
+  </si>
+  <si>
+    <t>Người lao động làm việc theo hợp đồng theo Nghị định số 68/2000/NĐ-CP</t>
+  </si>
+  <si>
+    <t>Đối tượng khác (nếu có)</t>
+  </si>
+  <si>
+    <t>Đối tượng hưởng lương trong đơn vị sự nghiệp</t>
+  </si>
+  <si>
+    <t>Công - viên chức trong các đơn vị sự nghiệp</t>
+  </si>
+  <si>
+    <t>Công chức</t>
+  </si>
+  <si>
+    <t>Viên chức</t>
+  </si>
+  <si>
+    <t>Người làm việc theo chế độ hợp đồng lao động được cấp có thẩm quyền phê duyệt</t>
+  </si>
+  <si>
+    <t>Người lao động theo chế độ hợp đồng lao động ngoài số lượng được cấp có thẩm quyền phê duyệt (nếu có)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +324,14 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF660E7A"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -336,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,7 +385,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -356,6 +393,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,21 +689,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A67" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="98" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -675,7 +714,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
@@ -686,7 +725,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -697,7 +736,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
@@ -708,7 +747,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
@@ -719,7 +758,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
@@ -730,7 +769,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
@@ -741,7 +780,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
@@ -752,7 +791,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
@@ -763,7 +802,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1">
@@ -774,7 +813,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1">
@@ -785,7 +824,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1">
@@ -796,7 +835,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
@@ -807,7 +846,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
@@ -818,7 +857,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
@@ -829,7 +868,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1">
@@ -840,7 +879,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1">
@@ -851,7 +890,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1">
@@ -862,7 +901,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1">
@@ -873,7 +912,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
@@ -883,53 +922,53 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:3" s="11" customFormat="1">
+      <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="8">
         <v>28</v>
       </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="11" customFormat="1">
+      <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="8">
         <v>28</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:3" s="11" customFormat="1">
+      <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="8">
         <v>28</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:3" s="11" customFormat="1">
+      <c r="A24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="8">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B24" s="3">
-        <v>28</v>
-      </c>
-      <c r="C24" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="B25" s="1">
         <v>17</v>
@@ -939,8 +978,8 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="6" t="s">
-        <v>27</v>
+      <c r="A26" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>17</v>
@@ -950,8 +989,8 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
-        <v>28</v>
+      <c r="A27" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>17</v>
@@ -961,8 +1000,8 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="6" t="s">
-        <v>29</v>
+      <c r="A28" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>17</v>
@@ -972,8 +1011,8 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="6" t="s">
-        <v>30</v>
+      <c r="A29" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>17</v>
@@ -982,64 +1021,64 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="4" customFormat="1">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:3" s="11" customFormat="1">
+      <c r="A30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="8">
+        <v>11</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="11" customFormat="1">
+      <c r="A31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="8">
         <v>11</v>
       </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="4" customFormat="1">
-      <c r="A31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="3">
+      <c r="C31" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="8">
         <v>11</v>
       </c>
-      <c r="C31" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A32" s="7" t="s">
+      <c r="C32" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="11" customFormat="1">
+      <c r="A33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B33" s="8">
         <v>11</v>
       </c>
-      <c r="C32" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="4" customFormat="1">
-      <c r="A33" s="7" t="s">
+      <c r="C33" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="11" customFormat="1">
+      <c r="A34" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B34" s="8">
         <v>11</v>
       </c>
-      <c r="C33" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="4" customFormat="1">
-      <c r="A34" s="7" t="s">
+      <c r="C34" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B34" s="3">
-        <v>11</v>
-      </c>
-      <c r="C34" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="B35" s="1">
         <v>25</v>
@@ -1049,8 +1088,8 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="6" t="s">
-        <v>37</v>
+      <c r="A36" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B36" s="1">
         <v>25</v>
@@ -1060,8 +1099,8 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="6" t="s">
-        <v>38</v>
+      <c r="A37" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B37" s="1">
         <v>25</v>
@@ -1071,8 +1110,8 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="6" t="s">
-        <v>39</v>
+      <c r="A38" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B38" s="1">
         <v>25</v>
@@ -1081,42 +1120,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="4" customFormat="1">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:3" s="11" customFormat="1">
+      <c r="A39" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="8">
+        <v>35</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="11" customFormat="1">
+      <c r="A40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B40" s="8">
         <v>35</v>
       </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="4" customFormat="1">
-      <c r="A40" s="7" t="s">
+      <c r="C40" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="11" customFormat="1">
+      <c r="A41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B41" s="8">
         <v>35</v>
       </c>
-      <c r="C40" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="4" customFormat="1">
-      <c r="A41" s="7" t="s">
+      <c r="C41" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="B41" s="3">
-        <v>35</v>
-      </c>
-      <c r="C41" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="B42" s="1">
         <v>34</v>
@@ -1126,8 +1165,8 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="6" t="s">
-        <v>44</v>
+      <c r="A43" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>34</v>
@@ -1137,8 +1176,8 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="6" t="s">
-        <v>45</v>
+      <c r="A44" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B44" s="1">
         <v>34</v>
@@ -1148,19 +1187,19 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="B46" s="3">
         <v>1</v>
@@ -1170,8 +1209,8 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="7" t="s">
-        <v>48</v>
+      <c r="A47" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -1181,8 +1220,8 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="7" t="s">
-        <v>49</v>
+      <c r="A48" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
@@ -1192,8 +1231,8 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="7" t="s">
-        <v>50</v>
+      <c r="A49" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -1203,8 +1242,8 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="7" t="s">
-        <v>51</v>
+      <c r="A50" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
@@ -1214,8 +1253,8 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="7" t="s">
-        <v>52</v>
+      <c r="A51" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -1225,8 +1264,8 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="7" t="s">
-        <v>53</v>
+      <c r="A52" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -1236,8 +1275,8 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="7" t="s">
-        <v>54</v>
+      <c r="A53" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -1247,8 +1286,8 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="8" t="s">
-        <v>55</v>
+      <c r="A54" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B54" s="1">
         <v>23</v>
@@ -1258,8 +1297,8 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="6" t="s">
-        <v>56</v>
+      <c r="A55" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B55" s="1">
         <v>23</v>
@@ -1269,8 +1308,8 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="6" t="s">
-        <v>57</v>
+      <c r="A56" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B56" s="1">
         <v>23</v>
@@ -1280,8 +1319,8 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="6" t="s">
-        <v>58</v>
+      <c r="A57" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="B57" s="1">
         <v>23</v>
@@ -1291,129 +1330,129 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="8">
+        <v>21</v>
+      </c>
+      <c r="C58" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B59" s="8">
         <v>21</v>
       </c>
-      <c r="C58" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="10" t="s">
+      <c r="C59" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B60" s="8">
         <v>21</v>
       </c>
-      <c r="C59" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="10" t="s">
+      <c r="C60" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B61" s="8">
         <v>21</v>
       </c>
-      <c r="C60" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="10" t="s">
+      <c r="C61" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B62" s="8">
         <v>21</v>
       </c>
-      <c r="C61" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="10" t="s">
+      <c r="C62" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B63" s="8">
         <v>21</v>
       </c>
-      <c r="C62" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="10" t="s">
+      <c r="C63" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B64" s="8">
         <v>21</v>
       </c>
-      <c r="C63" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="10" t="s">
+      <c r="C64" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B65" s="8">
         <v>21</v>
       </c>
-      <c r="C64" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="10" t="s">
+      <c r="C65" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B66" s="8">
         <v>21</v>
       </c>
-      <c r="C65" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="10" t="s">
+      <c r="C66" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B67" s="8">
         <v>21</v>
       </c>
-      <c r="C66" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="10" t="s">
+      <c r="C67" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B68" s="8">
         <v>21</v>
       </c>
-      <c r="C67" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="10" t="s">
+      <c r="C68" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="B68" s="9">
-        <v>21</v>
-      </c>
-      <c r="C68" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="B69" s="1">
         <v>22</v>
@@ -1423,8 +1462,8 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="6" t="s">
-        <v>71</v>
+      <c r="A70" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="B70" s="1">
         <v>22</v>
@@ -1434,8 +1473,8 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="6" t="s">
-        <v>72</v>
+      <c r="A71" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B71" s="1">
         <v>22</v>
@@ -1445,8 +1484,8 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="6" t="s">
-        <v>73</v>
+      <c r="A72" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B72" s="1">
         <v>22</v>
@@ -1456,8 +1495,8 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="6" t="s">
-        <v>74</v>
+      <c r="A73" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="B73" s="1">
         <v>22</v>
@@ -1467,8 +1506,8 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="6" t="s">
-        <v>75</v>
+      <c r="A74" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B74" s="1">
         <v>22</v>
@@ -1478,8 +1517,8 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="6" t="s">
-        <v>76</v>
+      <c r="A75" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B75" s="1">
         <v>22</v>
@@ -1489,8 +1528,8 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="6" t="s">
-        <v>77</v>
+      <c r="A76" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B76" s="1">
         <v>22</v>
@@ -1500,8 +1539,8 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="6" t="s">
-        <v>78</v>
+      <c r="A77" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B77" s="1">
         <v>22</v>
@@ -1511,8 +1550,8 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="6" t="s">
-        <v>79</v>
+      <c r="A78" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B78" s="1">
         <v>22</v>
@@ -1522,8 +1561,8 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="6" t="s">
-        <v>80</v>
+      <c r="A79" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B79" s="1">
         <v>22</v>
@@ -1533,8 +1572,8 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="6" t="s">
-        <v>81</v>
+      <c r="A80" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B80" s="1">
         <v>22</v>
@@ -1544,8 +1583,8 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="6" t="s">
-        <v>82</v>
+      <c r="A81" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B81" s="1">
         <v>22</v>
@@ -1555,8 +1594,8 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="6" t="s">
-        <v>83</v>
+      <c r="A82" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="B82" s="1">
         <v>22</v>
@@ -1566,8 +1605,8 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="6" t="s">
-        <v>84</v>
+      <c r="A83" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B83" s="1">
         <v>22</v>
@@ -1577,8 +1616,8 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="8" t="s">
-        <v>85</v>
+      <c r="A84" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="B84" s="1">
         <v>22</v>
@@ -1588,14 +1627,124 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="6" t="s">
-        <v>86</v>
+      <c r="A85" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="B85" s="1">
         <v>22</v>
       </c>
       <c r="C85" s="1">
         <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="8">
+        <v>36</v>
+      </c>
+      <c r="C86" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="8">
+        <v>36</v>
+      </c>
+      <c r="C87" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="8">
+        <v>36</v>
+      </c>
+      <c r="C88" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="8">
+        <v>36</v>
+      </c>
+      <c r="C89" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="8">
+        <v>36</v>
+      </c>
+      <c r="C90" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="8">
+        <v>36</v>
+      </c>
+      <c r="C91" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="8">
+        <v>36</v>
+      </c>
+      <c r="C92" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="8">
+        <v>36</v>
+      </c>
+      <c r="C93" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="8">
+        <v>36</v>
+      </c>
+      <c r="C94" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="8">
+        <v>36</v>
+      </c>
+      <c r="C95" s="8">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/upload/excel/define_hr.xlsx
+++ b/upload/excel/define_hr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
   <si>
     <t>Name</t>
   </si>
@@ -307,13 +307,166 @@
   </si>
   <si>
     <t>Người lao động theo chế độ hợp đồng lao động ngoài số lượng được cấp có thẩm quyền phê duyệt (nếu có)</t>
+  </si>
+  <si>
+    <t>Bí thư Đảng ủy</t>
+  </si>
+  <si>
+    <t>Phó bí thư đảng ủy</t>
+  </si>
+  <si>
+    <t>Đảng ủy viên</t>
+  </si>
+  <si>
+    <t>Bí thư Chi bộ</t>
+  </si>
+  <si>
+    <t>Phó bí thư chi bộ</t>
+  </si>
+  <si>
+    <t>Chi ủy viên</t>
+  </si>
+  <si>
+    <t>Bác sĩ</t>
+  </si>
+  <si>
+    <t>Kỹ sư</t>
+  </si>
+  <si>
+    <t>Kiến trúc sư</t>
+  </si>
+  <si>
+    <t>Cử nhân</t>
+  </si>
+  <si>
+    <t>Dược sỹ</t>
+  </si>
+  <si>
+    <t>Cao đăng</t>
+  </si>
+  <si>
+    <t>Trung cấp</t>
+  </si>
+  <si>
+    <t>Thạc sỹ</t>
+  </si>
+  <si>
+    <t>Bác sĩ CKI</t>
+  </si>
+  <si>
+    <t>Tiến sỹ</t>
+  </si>
+  <si>
+    <t>Tiến sỹ khoa học</t>
+  </si>
+  <si>
+    <t>Bác sỹ CKII</t>
+  </si>
+  <si>
+    <t>Chứng chỉ</t>
+  </si>
+  <si>
+    <t>Bằng nghề</t>
+  </si>
+  <si>
+    <t>Sơ cấp</t>
+  </si>
+  <si>
+    <t>Y sỹ</t>
+  </si>
+  <si>
+    <t>Y tá</t>
+  </si>
+  <si>
+    <t>Chính quy</t>
+  </si>
+  <si>
+    <t>Chuyển đổi bằng</t>
+  </si>
+  <si>
+    <t>Chuyên tu</t>
+  </si>
+  <si>
+    <t>Dài hạn</t>
+  </si>
+  <si>
+    <t>Dài hạn tập chung</t>
+  </si>
+  <si>
+    <t>Đại học</t>
+  </si>
+  <si>
+    <t>Đại học ngắn hạn</t>
+  </si>
+  <si>
+    <t>Dự bị</t>
+  </si>
+  <si>
+    <t>Hoàn chỉnh kiến hức</t>
+  </si>
+  <si>
+    <t>Không liên thông</t>
+  </si>
+  <si>
+    <t>Liên thông</t>
+  </si>
+  <si>
+    <t>Mở rộng</t>
+  </si>
+  <si>
+    <t>Ngắn hạn</t>
+  </si>
+  <si>
+    <t>Nghiên cứu sinh</t>
+  </si>
+  <si>
+    <t>Tại chức</t>
+  </si>
+  <si>
+    <t>Tập trung</t>
+  </si>
+  <si>
+    <t>Thực hiện đề tài</t>
+  </si>
+  <si>
+    <t>Từ xa</t>
+  </si>
+  <si>
+    <t>Văn bằng 2</t>
+  </si>
+  <si>
+    <t>SƠ CẤP NGHỀ VÀ DẠY NGHỀ DƯỚI 3 THÁNG</t>
+  </si>
+  <si>
+    <t>TRUNG HỌC PHỔ THÔNG</t>
+  </si>
+  <si>
+    <t>TRUNG CẤP NGHỀ</t>
+  </si>
+  <si>
+    <t>TRUNG CẤP CHUYÊN NGHIỆP</t>
+  </si>
+  <si>
+    <t>CAO ĐẲNG NGHỀ</t>
+  </si>
+  <si>
+    <t>CAO ĐẲNG</t>
+  </si>
+  <si>
+    <t>ĐẠI HỌC</t>
+  </si>
+  <si>
+    <t>THẠC SĨ</t>
+  </si>
+  <si>
+    <t>TIẾN SĨ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,8 +488,15 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +521,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -374,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,6 +561,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1745,6 +1916,578 @@
       </c>
       <c r="C95" s="8">
         <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="1">
+        <v>31</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="1">
+        <v>31</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="1">
+        <v>31</v>
+      </c>
+      <c r="C98" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="1">
+        <v>31</v>
+      </c>
+      <c r="C99" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="1">
+        <v>31</v>
+      </c>
+      <c r="C100" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="1">
+        <v>31</v>
+      </c>
+      <c r="C101" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="8">
+        <v>30</v>
+      </c>
+      <c r="C102" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="8">
+        <v>30</v>
+      </c>
+      <c r="C103" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="8">
+        <v>30</v>
+      </c>
+      <c r="C104" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="8">
+        <v>30</v>
+      </c>
+      <c r="C105" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="8">
+        <v>30</v>
+      </c>
+      <c r="C106" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="8">
+        <v>30</v>
+      </c>
+      <c r="C107" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="8">
+        <v>30</v>
+      </c>
+      <c r="C108" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="8">
+        <v>30</v>
+      </c>
+      <c r="C109" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="8">
+        <v>30</v>
+      </c>
+      <c r="C110" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="8">
+        <v>30</v>
+      </c>
+      <c r="C111" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="8">
+        <v>30</v>
+      </c>
+      <c r="C112" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="8">
+        <v>30</v>
+      </c>
+      <c r="C113" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="8">
+        <v>30</v>
+      </c>
+      <c r="C114" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="8">
+        <v>30</v>
+      </c>
+      <c r="C115" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="8">
+        <v>30</v>
+      </c>
+      <c r="C116" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="8">
+        <v>30</v>
+      </c>
+      <c r="C117" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="8">
+        <v>30</v>
+      </c>
+      <c r="C118" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="14">
+        <v>37</v>
+      </c>
+      <c r="C119" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B120" s="14">
+        <v>37</v>
+      </c>
+      <c r="C120" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="14">
+        <v>37</v>
+      </c>
+      <c r="C121" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" s="14">
+        <v>37</v>
+      </c>
+      <c r="C122" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" s="14">
+        <v>37</v>
+      </c>
+      <c r="C123" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="14">
+        <v>37</v>
+      </c>
+      <c r="C124" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" s="14">
+        <v>37</v>
+      </c>
+      <c r="C125" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" s="14">
+        <v>37</v>
+      </c>
+      <c r="C126" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" s="14">
+        <v>37</v>
+      </c>
+      <c r="C127" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="14">
+        <v>37</v>
+      </c>
+      <c r="C128" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" s="14">
+        <v>37</v>
+      </c>
+      <c r="C129" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" s="14">
+        <v>37</v>
+      </c>
+      <c r="C130" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" s="14">
+        <v>37</v>
+      </c>
+      <c r="C131" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" s="14">
+        <v>37</v>
+      </c>
+      <c r="C132" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" s="14">
+        <v>37</v>
+      </c>
+      <c r="C133" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" s="14">
+        <v>37</v>
+      </c>
+      <c r="C134" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" s="14">
+        <v>37</v>
+      </c>
+      <c r="C135" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" s="14">
+        <v>37</v>
+      </c>
+      <c r="C136" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" s="14">
+        <v>37</v>
+      </c>
+      <c r="C137" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" s="14">
+        <v>37</v>
+      </c>
+      <c r="C138" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" s="8">
+        <v>38</v>
+      </c>
+      <c r="C139" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" s="8">
+        <v>38</v>
+      </c>
+      <c r="C140" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" s="8">
+        <v>38</v>
+      </c>
+      <c r="C141" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" s="8">
+        <v>38</v>
+      </c>
+      <c r="C142" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" s="8">
+        <v>38</v>
+      </c>
+      <c r="C143" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="8">
+        <v>38</v>
+      </c>
+      <c r="C144" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="8">
+        <v>38</v>
+      </c>
+      <c r="C145" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="8">
+        <v>38</v>
+      </c>
+      <c r="C146" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="8">
+        <v>38</v>
+      </c>
+      <c r="C147" s="8">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/upload/excel/define_hr.xlsx
+++ b/upload/excel/define_hr.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Name</t>
   </si>
@@ -307,13 +307,22 @@
   </si>
   <si>
     <t>Người lao động theo chế độ hợp đồng lao động ngoài số lượng được cấp có thẩm quyền phê duyệt (nếu có)</t>
+  </si>
+  <si>
+    <t>Thiết bị đang sử dụng</t>
+  </si>
+  <si>
+    <t>Thiết bị đã thanh lý</t>
+  </si>
+  <si>
+    <t>Thiết bị đang nằm kho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +410,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -447,7 +464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,9 +496,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,6 +531,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -688,21 +707,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="98" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -713,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -724,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -735,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -746,7 +765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -757,7 +776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -768,7 +787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -779,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -790,7 +809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -801,7 +820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -812,7 +831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -823,7 +842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -834,7 +853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -845,7 +864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -856,7 +875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -867,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -878,7 +897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -889,7 +908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -900,7 +919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -911,7 +930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -922,7 +941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="11" customFormat="1">
+    <row r="21" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -933,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="11" customFormat="1">
+    <row r="22" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
@@ -944,7 +963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="11" customFormat="1">
+    <row r="23" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -955,7 +974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="11" customFormat="1">
+    <row r="24" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>86</v>
       </c>
@@ -966,7 +985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
@@ -977,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -999,7 +1018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -1010,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
@@ -1021,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="11" customFormat="1">
+    <row r="30" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>30</v>
       </c>
@@ -1032,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="11" customFormat="1">
+    <row r="31" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>31</v>
       </c>
@@ -1043,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
+    <row r="32" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>32</v>
       </c>
@@ -1054,7 +1073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="11" customFormat="1">
+    <row r="33" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>33</v>
       </c>
@@ -1065,7 +1084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="11" customFormat="1">
+    <row r="34" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>34</v>
       </c>
@@ -1076,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
@@ -1087,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
@@ -1098,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
@@ -1109,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
@@ -1120,7 +1139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="11" customFormat="1">
+    <row r="39" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>39</v>
       </c>
@@ -1131,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="11" customFormat="1">
+    <row r="40" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>40</v>
       </c>
@@ -1142,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="11" customFormat="1">
+    <row r="41" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>41</v>
       </c>
@@ -1153,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
@@ -1164,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
@@ -1175,7 +1194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
@@ -1186,7 +1205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
@@ -1197,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>46</v>
       </c>
@@ -1208,7 +1227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
@@ -1219,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>48</v>
       </c>
@@ -1230,7 +1249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>49</v>
       </c>
@@ -1241,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
@@ -1252,7 +1271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
@@ -1263,7 +1282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>52</v>
       </c>
@@ -1274,7 +1293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>53</v>
       </c>
@@ -1285,7 +1304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>54</v>
       </c>
@@ -1296,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
@@ -1307,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
@@ -1318,7 +1337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
@@ -1329,7 +1348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>58</v>
       </c>
@@ -1340,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>59</v>
       </c>
@@ -1351,7 +1370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>60</v>
       </c>
@@ -1362,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>61</v>
       </c>
@@ -1373,7 +1392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>62</v>
       </c>
@@ -1384,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>63</v>
       </c>
@@ -1395,7 +1414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>64</v>
       </c>
@@ -1406,7 +1425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>65</v>
       </c>
@@ -1417,7 +1436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>66</v>
       </c>
@@ -1428,7 +1447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>67</v>
       </c>
@@ -1439,7 +1458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>68</v>
       </c>
@@ -1450,7 +1469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>69</v>
       </c>
@@ -1461,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>70</v>
       </c>
@@ -1472,7 +1491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>71</v>
       </c>
@@ -1483,7 +1502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>72</v>
       </c>
@@ -1494,7 +1513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>73</v>
       </c>
@@ -1505,7 +1524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>74</v>
       </c>
@@ -1516,7 +1535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>75</v>
       </c>
@@ -1527,7 +1546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>76</v>
       </c>
@@ -1538,7 +1557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>77</v>
       </c>
@@ -1549,7 +1568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>78</v>
       </c>
@@ -1560,7 +1579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>79</v>
       </c>
@@ -1571,7 +1590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>80</v>
       </c>
@@ -1582,7 +1601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>81</v>
       </c>
@@ -1593,7 +1612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>82</v>
       </c>
@@ -1604,7 +1623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>83</v>
       </c>
@@ -1615,7 +1634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>84</v>
       </c>
@@ -1626,7 +1645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>85</v>
       </c>
@@ -1637,7 +1656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>87</v>
       </c>
@@ -1648,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>88</v>
       </c>
@@ -1659,7 +1678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>89</v>
       </c>
@@ -1670,7 +1689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>90</v>
       </c>
@@ -1681,7 +1700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>91</v>
       </c>
@@ -1692,7 +1711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>92</v>
       </c>
@@ -1703,7 +1722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>93</v>
       </c>
@@ -1714,7 +1733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>94</v>
       </c>
@@ -1725,7 +1744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>95</v>
       </c>
@@ -1736,7 +1755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>96</v>
       </c>
@@ -1745,6 +1764,39 @@
       </c>
       <c r="C95" s="8">
         <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="2">
+        <v>35</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="2">
+        <v>35</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="2">
+        <v>35</v>
+      </c>
+      <c r="C98" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1754,26 +1806,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
